--- a/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
+++ b/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.120\student\35_Ms-Office実践_ディエン\前期課題\問題１\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\NGUYENTRUONGAN-A202301\問題１\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE7E271-29F9-454C-AF46-35D4DA25FBFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58365841-C705-457A-987E-81882463C2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8820" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="10月" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="住所" localSheetId="0">[1]顧客一覧!#REF!</definedName>
     <definedName name="住所" localSheetId="3">商品一覧!#REF!</definedName>
     <definedName name="住所">顧客一覧!#REF!</definedName>
-    <definedName name="商品概要">商品一覧!$E$4:$E$13</definedName>
+    <definedName name="商品概要">商品一覧!#REF!</definedName>
     <definedName name="商品番号">商品一覧!$B$4:$B$13</definedName>
     <definedName name="商品名">商品一覧!$C$4:$C$13</definedName>
     <definedName name="単価">商品一覧!$D$4:$D$13</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="69">
   <si>
     <t>売上一覧表（11月分）</t>
     <rPh sb="0" eb="2">
@@ -130,27 +130,10 @@
     <t>リビングソファ</t>
   </si>
   <si>
-    <t>イタリア製</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>リビングテーブル</t>
   </si>
   <si>
     <t>リクライニングチェア</t>
-  </si>
-  <si>
-    <t>5段階に調整</t>
-    <rPh sb="1" eb="3">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ダイニングテーブル</t>
@@ -181,16 +164,6 @@
     <t>本棚</t>
     <rPh sb="0" eb="2">
       <t>ホンダナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>100冊収納</t>
-    <rPh sb="3" eb="4">
-      <t>サツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1136,10 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5A91C-DC9B-4068-B8CF-60422A5AC1CD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1157,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1171,16 +1147,16 @@
     <row r="2" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>3</v>
@@ -1192,10 +1168,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
@@ -1206,16 +1182,16 @@
         <v>44108</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1020</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="18">
         <v>38000</v>
@@ -1236,16 +1212,16 @@
         <v>44111</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>2030</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="18">
         <v>108000</v>
@@ -1266,16 +1242,16 @@
         <v>44111</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>3020</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="18">
         <v>88000</v>
@@ -1296,16 +1272,16 @@
         <v>44112</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1010</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="18">
         <v>98000</v>
@@ -1326,16 +1302,16 @@
         <v>44112</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>3010</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="18">
         <v>128000</v>
@@ -1356,16 +1332,16 @@
         <v>44114</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>1020</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="18">
         <v>38000</v>
@@ -1386,16 +1362,16 @@
         <v>44115</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>2020</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="18">
         <v>35000</v>
@@ -1416,16 +1392,16 @@
         <v>44115</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>2020</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="18">
         <v>35000</v>
@@ -1446,16 +1422,16 @@
         <v>44115</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1020</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" s="18">
         <v>38000</v>
@@ -1476,16 +1452,16 @@
         <v>44116</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>3010</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="18">
         <v>128000</v>
@@ -1506,16 +1482,16 @@
         <v>44116</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>2010</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="18">
         <v>58000</v>
@@ -1536,16 +1512,16 @@
         <v>44118</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2030</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="18">
         <v>108000</v>
@@ -1566,16 +1542,16 @@
         <v>44118</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>3010</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16" s="18">
         <v>128000</v>
@@ -1596,16 +1572,16 @@
         <v>44119</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>2010</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H17" s="18">
         <v>58000</v>
@@ -1626,16 +1602,16 @@
         <v>44119</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>4020</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="18">
         <v>98000</v>
@@ -1656,16 +1632,16 @@
         <v>44119</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>3020</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19" s="18">
         <v>88000</v>
@@ -1686,16 +1662,16 @@
         <v>44120</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>1020</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="18">
         <v>38000</v>
@@ -1716,16 +1692,16 @@
         <v>44120</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H21" s="18">
         <v>58000</v>
@@ -1746,16 +1722,16 @@
         <v>44121</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>3020</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22" s="18">
         <v>88000</v>
@@ -1776,16 +1752,16 @@
         <v>44121</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>2010</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H23" s="18">
         <v>58000</v>
@@ -1806,16 +1782,16 @@
         <v>44121</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>4020</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24" s="18">
         <v>98000</v>
@@ -1836,16 +1812,16 @@
         <v>44122</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25">
         <v>1030</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" s="18">
         <v>65000</v>
@@ -1866,16 +1842,16 @@
         <v>44122</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>2020</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26" s="18">
         <v>35000</v>
@@ -1896,16 +1872,16 @@
         <v>44123</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>1020</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H27" s="18">
         <v>38000</v>
@@ -1926,16 +1902,16 @@
         <v>44123</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>1030</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H28" s="18">
         <v>65000</v>
@@ -1956,16 +1932,16 @@
         <v>44123</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29">
         <v>2020</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H29" s="18">
         <v>35000</v>
@@ -1986,16 +1962,16 @@
         <v>44123</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>3010</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H30" s="18">
         <v>128000</v>
@@ -2016,16 +1992,16 @@
         <v>44124</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>2010</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H31" s="18">
         <v>58000</v>
@@ -2046,16 +2022,16 @@
         <v>44124</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32">
         <v>1020</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H32" s="18">
         <v>38000</v>
@@ -2076,16 +2052,16 @@
         <v>44125</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>1010</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H33" s="18">
         <v>98000</v>
@@ -2106,16 +2082,16 @@
         <v>44125</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34">
         <v>1020</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H34" s="18">
         <v>38000</v>
@@ -2136,16 +2112,16 @@
         <v>44126</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>1010</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H35" s="18">
         <v>98000</v>
@@ -2166,16 +2142,16 @@
         <v>44126</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>3010</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36" s="18">
         <v>128000</v>
@@ -2196,16 +2172,16 @@
         <v>44126</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <v>2020</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H37" s="18">
         <v>35000</v>
@@ -2226,16 +2202,16 @@
         <v>44126</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F38">
         <v>3020</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38" s="18">
         <v>88000</v>
@@ -2256,16 +2232,16 @@
         <v>44126</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F39">
         <v>4010</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H39" s="18">
         <v>78000</v>
@@ -2286,16 +2262,16 @@
         <v>44126</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <v>4020</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H40" s="18">
         <v>98000</v>
@@ -2316,16 +2292,16 @@
         <v>44127</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <v>2030</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="18">
         <v>108000</v>
@@ -2346,16 +2322,16 @@
         <v>44127</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42">
         <v>4020</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H42" s="18">
         <v>98000</v>
@@ -2376,16 +2352,16 @@
         <v>44128</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>4010</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H43" s="18">
         <v>78000</v>
@@ -2406,16 +2382,16 @@
         <v>44128</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F44">
         <v>1020</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H44" s="18">
         <v>38000</v>
@@ -2436,16 +2412,16 @@
         <v>44128</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45">
         <v>1030</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H45" s="18">
         <v>65000</v>
@@ -2466,16 +2442,16 @@
         <v>44128</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>1010</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46" s="18">
         <v>98000</v>
@@ -2496,16 +2472,16 @@
         <v>44129</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F47">
         <v>1030</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H47" s="18">
         <v>65000</v>
@@ -2526,16 +2502,16 @@
         <v>44129</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48">
         <v>1020</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H48" s="18">
         <v>38000</v>
@@ -2556,16 +2532,16 @@
         <v>44130</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>3010</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49" s="18">
         <v>128000</v>
@@ -2586,16 +2562,16 @@
         <v>44130</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>3020</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H50" s="18">
         <v>88000</v>
@@ -2616,16 +2592,16 @@
         <v>44132</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>1030</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H51" s="18">
         <v>65000</v>
@@ -2646,16 +2622,16 @@
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <v>1030</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H52" s="18">
         <v>65000</v>
@@ -2676,16 +2652,16 @@
         <v>44133</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>4020</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H53" s="18">
         <v>98000</v>
@@ -2706,16 +2682,16 @@
         <v>44133</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <v>1010</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54" s="18">
         <v>98000</v>
@@ -2736,16 +2712,16 @@
         <v>44133</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F55">
         <v>2030</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="18">
         <v>108000</v>
@@ -2766,16 +2742,16 @@
         <v>44134</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F56">
         <v>3020</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H56" s="18">
         <v>88000</v>
@@ -2796,16 +2772,16 @@
         <v>44134</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>2010</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H57" s="18">
         <v>58000</v>
@@ -2826,16 +2802,16 @@
         <v>44135</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>2010</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H58" s="18">
         <v>58000</v>
@@ -2850,8 +2826,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
+  <printOptions headings="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.94488188976377951" bottom="0.94488188976377951" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2903,31 +2880,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
       <c r="J3" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -2938,16 +2915,16 @@
         <v>44136</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>2020</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>35000</v>
@@ -2968,16 +2945,16 @@
         <v>44138</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2010</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>58000</v>
@@ -2998,16 +2975,16 @@
         <v>44138</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>3020</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>88000</v>
@@ -3028,16 +3005,16 @@
         <v>44140</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2010</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>58000</v>
@@ -3058,16 +3035,16 @@
         <v>44140</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>2020</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>35000</v>
@@ -3088,16 +3065,16 @@
         <v>44140</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>4010</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>78000</v>
@@ -3118,16 +3095,16 @@
         <v>44141</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2010</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>58000</v>
@@ -3148,16 +3125,16 @@
         <v>44142</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>1030</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>65000</v>
@@ -3178,16 +3155,16 @@
         <v>44142</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>1030</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>65000</v>
@@ -3208,16 +3185,16 @@
         <v>44144</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>3020</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>88000</v>
@@ -3238,16 +3215,16 @@
         <v>44145</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2010</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>58000</v>
@@ -3268,16 +3245,16 @@
         <v>44145</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2030</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>108000</v>
@@ -3298,10 +3275,10 @@
         <v>44145</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>1010</v>
@@ -3328,16 +3305,16 @@
         <v>44148</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>1020</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>38000</v>
@@ -3358,16 +3335,16 @@
         <v>44149</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>2020</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>35000</v>
@@ -3388,10 +3365,10 @@
         <v>44149</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>1010</v>
@@ -3418,16 +3395,16 @@
         <v>44150</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>2030</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <v>108000</v>
@@ -3448,16 +3425,16 @@
         <v>44150</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>4010</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>78000</v>
@@ -3478,16 +3455,16 @@
         <v>44150</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>3010</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>128000</v>
@@ -3508,16 +3485,16 @@
         <v>44152</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>1030</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>65000</v>
@@ -3538,16 +3515,16 @@
         <v>44153</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>1020</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>38000</v>
@@ -3568,16 +3545,16 @@
         <v>44153</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>4010</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <v>78000</v>
@@ -3598,16 +3575,16 @@
         <v>44155</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F26">
         <v>3020</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>88000</v>
@@ -3628,10 +3605,10 @@
         <v>44155</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>1010</v>
@@ -3658,16 +3635,16 @@
         <v>44155</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>2020</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>35000</v>
@@ -3688,16 +3665,16 @@
         <v>44155</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <v>2010</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>58000</v>
@@ -3718,16 +3695,16 @@
         <v>44157</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>1030</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>65000</v>
@@ -3748,16 +3725,16 @@
         <v>44158</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>1030</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>65000</v>
@@ -3778,16 +3755,16 @@
         <v>44158</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>1020</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>38000</v>
@@ -3808,16 +3785,16 @@
         <v>44158</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>2020</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>35000</v>
@@ -3838,16 +3815,16 @@
         <v>44159</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>2030</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H34">
         <v>108000</v>
@@ -3868,16 +3845,16 @@
         <v>44160</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>1020</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>38000</v>
@@ -3898,16 +3875,16 @@
         <v>44160</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>1030</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>65000</v>
@@ -3928,16 +3905,16 @@
         <v>44160</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F37">
         <v>3010</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>128000</v>
@@ -3958,16 +3935,16 @@
         <v>44160</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>2020</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38">
         <v>35000</v>
@@ -3988,16 +3965,16 @@
         <v>44160</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F39">
         <v>4020</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <v>98000</v>
@@ -4018,16 +3995,16 @@
         <v>44161</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <v>3010</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40">
         <v>128000</v>
@@ -4048,16 +4025,16 @@
         <v>44161</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F41">
         <v>4010</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>78000</v>
@@ -4078,16 +4055,16 @@
         <v>44161</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F42">
         <v>1030</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>65000</v>
@@ -4108,16 +4085,16 @@
         <v>44161</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>3020</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H43">
         <v>88000</v>
@@ -4138,10 +4115,10 @@
         <v>44161</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <v>1010</v>
@@ -4168,16 +4145,16 @@
         <v>44163</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>1030</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>65000</v>
@@ -4198,16 +4175,16 @@
         <v>44163</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>2030</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H46">
         <v>108000</v>
@@ -4228,16 +4205,16 @@
         <v>44164</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>4010</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>78000</v>
@@ -4258,16 +4235,16 @@
         <v>44164</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F48">
         <v>2020</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>35000</v>
@@ -4288,16 +4265,16 @@
         <v>44164</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>1030</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>65000</v>
@@ -4318,16 +4295,16 @@
         <v>44165</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>1030</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>65000</v>
@@ -4348,16 +4325,16 @@
         <v>44165</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <v>1020</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <v>38000</v>
@@ -4378,16 +4355,16 @@
         <v>44165</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>1030</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>65000</v>
@@ -4450,7 +4427,9 @@
   </sheetPr>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4495,16 +4474,13 @@
       <c r="D4" s="15">
         <v>98000</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="14">
         <v>1020</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="15">
         <v>38000</v>
@@ -4515,13 +4491,10 @@
         <v>1030</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="15">
         <v>65000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
@@ -4529,7 +4502,7 @@
         <v>2010</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="15">
         <v>58000</v>
@@ -4540,7 +4513,7 @@
         <v>2020</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="15">
         <v>35000</v>
@@ -4551,7 +4524,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="15">
         <v>108000</v>
@@ -4562,7 +4535,7 @@
         <v>3010</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="15">
         <v>128000</v>
@@ -4573,7 +4546,7 @@
         <v>3020</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="15">
         <v>88000</v>
@@ -4584,7 +4557,7 @@
         <v>4010</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15">
         <v>78000</v>
@@ -4595,13 +4568,10 @@
         <v>4020</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="15">
         <v>98000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
+++ b/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\NGUYENTRUONGAN-A202301\問題１\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58365841-C705-457A-987E-81882463C2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525E05E-8DD3-45F0-A6F0-4325C49C9E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="10月" sheetId="4" r:id="rId1"/>
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2829,6 +2829,12 @@
   <printOptions headings="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.94488188976377951" bottom="0.94488188976377951" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C株式会社OOOリビング
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;P/&amp;N
+</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -4427,8 +4433,8 @@
   </sheetPr>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
+++ b/NGUYENTRUONGAN-A202301/問題１/問題_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\NGUYENTRUONGAN-A202301\問題１\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525E05E-8DD3-45F0-A6F0-4325C49C9E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7E3AF-5095-427B-95EF-6A690818BAF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{AB13E609-8159-4D1F-82B0-A10A960DA23F}"/>
   </bookViews>
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="W1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2826,14 +2826,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <printOptions headings="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.94488188976377951" bottom="0.94488188976377951" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C株式会社OOOリビング
-</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L&amp;P/&amp;N
-</oddFooter>
+    <oddHeader>&amp;R株式会社OOOリビング</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4434,7 +4431,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
